--- a/document/Database.xlsx
+++ b/document/Database.xlsx
@@ -12,11 +12,12 @@
     <sheet name="EMOTION" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>ACCOUNT</t>
   </si>
@@ -61,24 +62,12 @@
     <t>Số thứ tự các tài khoản</t>
   </si>
   <si>
-    <t>facebook</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>Tên tài khoản facebook</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>Tên tài khoản google</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -113,9 +102,6 @@
   </si>
   <si>
     <t>Tên bài viết</t>
-  </si>
-  <si>
-    <t>CONTENT</t>
   </si>
   <si>
     <t>Nội dung bài viết</t>
@@ -154,12 +140,24 @@
   </si>
   <si>
     <t>Token tương ứng của người dùng</t>
+  </si>
+  <si>
+    <t>ARTICLE_NAME</t>
+  </si>
+  <si>
+    <t>ARTICLE_CONTENT</t>
+  </si>
+  <si>
+    <t>UNIQUE: ARTICLE + NAME</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -259,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,44 +632,47 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,69 +680,41 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +727,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -806,45 +782,45 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -912,32 +888,41 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>